--- a/DDAf_2024_Tableau_annexe_Tab32.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05101998-6D7F-4170-A124-BAB6D669A978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14420A1C-47EB-4BBC-BDC9-AEC2C9939FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{36EAF694-0521-4D6E-9B4F-546F6A001E0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5527C8AD-1339-47DE-86FA-8FBA99F79864}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab32" sheetId="1" r:id="rId1"/>
@@ -1506,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DD7CD2-613F-4774-9ECA-2F3FD5DF7991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0E68A9-F237-4389-905C-B1FF72170604}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1514,15 +1514,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="47" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="47" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1572,7 +1572,7 @@
       <c r="AT1" s="4"/>
       <c r="AU1" s="5"/>
     </row>
-    <row r="2" spans="1:47" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:47" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>134.76</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>18.062000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>9.5069999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>54</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>9.2010000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>56</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>135.19499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>181.761</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>60</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>36.206000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>62</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>461.28899999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>64</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>124.71599999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>66</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>104.36199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>68</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>1215.059</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>70</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>130.28299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>72</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>217.09899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>42.243000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>76</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>104.807</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>78</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>55.003</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>80</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>147.499</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>82</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>10.345000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>84</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>33.762</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>86</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>3.0739999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>68</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>744.11500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>89</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>13.481999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>91</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>32.378</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>93</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>42.829000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>95</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>1934.7570000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>97</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>494.06400000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>99</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>170.54400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>101</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>12.38</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>103</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>141.94800000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>105</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>108</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>410.02600000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>110</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>57.337000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>112</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>119.396</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>114</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>301.87099999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>116</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>194.255</v>
       </c>
     </row>
-    <row r="38" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>68</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>3925.2669999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>119</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>190.279</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>121</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>854.18299999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>123</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>65.498999999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>125</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>63.658999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>127</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>481.375</v>
       </c>
     </row>
-    <row r="44" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>129</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>56.566000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>68</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>1711.5609999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>132</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>169.19499999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>134</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>95.21</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>136</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>138</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>174.66499999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>140</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>79.738</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>142</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>307.33100000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>144</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>66.989999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>146</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>28.382999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>148</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>41.38</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>150</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>97.87</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>152</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>189.01</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>154</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>2278.8409999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>156</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>325.75599999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>158</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>23.802</v>
       </c>
     </row>
-    <row r="60" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>160</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>87.367999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
         <v>68</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>3970.8690000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
         <v>68</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>11566.870999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="46" t="s">
         <v>68</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>60763.258999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
         <v>68</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>7405.1559999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
         <v>68</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>36100.120000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
         <v>68</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>72330.13</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
         <v>68</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>5193.8689999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
         <v>68</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>6210.6019999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" s="55" t="s">
         <v>68</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>1467.2570000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" s="55" t="s">
         <v>68</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>1020.823</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" s="55" t="s">
         <v>68</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>3970.8690000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A72" s="55" t="s">
         <v>68</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>3242.2130000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
         <v>68</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>1860.835</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" s="55" t="s">
         <v>68</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>857.37800000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
         <v>68</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>353.30799999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" s="55" t="s">
         <v>68</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>6008.5959999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77" s="55" t="s">
         <v>68</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>5171.4570000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78" s="55" t="s">
         <v>68</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>3891.69</v>
       </c>
     </row>
-    <row r="79" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55" t="s">
         <v>68</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>14680.016</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" s="55" t="s">
         <v>68</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>720.78099999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="55" t="s">
         <v>68</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>5668.6109999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="55" t="s">
         <v>68</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>10846.09</v>
       </c>
     </row>
-    <row r="83" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55" t="s">
         <v>68</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>55094.648000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
         <v>68</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>4455.6409999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="55" t="s">
         <v>68</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>893.41700000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" s="55" t="s">
         <v>68</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>6473.6869999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="55" t="s">
         <v>68</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>18740.076000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="55" t="s">
         <v>68</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>637.54300000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="55" t="s">
         <v>68</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>25549.143</v>
       </c>
     </row>
-    <row r="90" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55" t="s">
         <v>68</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>14997.624</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="55" t="s">
         <v>68</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>5700.723</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="55" t="s">
         <v>68</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>3044.3270000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="55" t="s">
         <v>68</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>62.649000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A94" s="55" t="s">
         <v>68</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>766.02700000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A95" s="55" t="s">
         <v>68</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>3388.7629999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55" t="s">
         <v>68</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>1385.904</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="55" t="s">
         <v>68</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>7384.3670000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55" t="s">
         <v>68</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>6469.4089999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="72"/>
       <c r="B99" s="73"/>
       <c r="C99" s="53"/>
@@ -15492,7 +15492,7 @@
       <c r="AT99" s="53"/>
       <c r="AU99" s="53"/>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -15542,7 +15542,7 @@
       <c r="AT100" s="74"/>
       <c r="AU100" s="74"/>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>199</v>
       </c>
@@ -15592,7 +15592,7 @@
       <c r="AT101" s="74"/>
       <c r="AU101" s="74"/>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>200</v>
       </c>
@@ -15642,7 +15642,7 @@
       <c r="AT102" s="74"/>
       <c r="AU102" s="74"/>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>201</v>
       </c>
@@ -15692,7 +15692,7 @@
       <c r="AT103" s="74"/>
       <c r="AU103" s="74"/>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>202</v>
       </c>
@@ -15742,7 +15742,7 @@
       <c r="AT104" s="74"/>
       <c r="AU104" s="74"/>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
       <c r="C105" s="74"/>
       <c r="D105" s="74"/>
       <c r="E105" s="74"/>
@@ -15789,7 +15789,7 @@
       <c r="AT105" s="74"/>
       <c r="AU105" s="74"/>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
@@ -15837,7 +15837,7 @@
       <c r="AT106" s="74"/>
       <c r="AU106" s="74"/>
     </row>
-    <row r="107" spans="1:47" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="76" t="s">
         <v>203</v>
       </c>
@@ -15887,7 +15887,7 @@
       <c r="AT107" s="74"/>
       <c r="AU107" s="74"/>
     </row>
-    <row r="108" spans="1:47" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="76"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
@@ -15935,7 +15935,7 @@
       <c r="AT108" s="74"/>
       <c r="AU108" s="74"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>205</v>
       </c>
@@ -15985,7 +15985,7 @@
       <c r="AT109" s="74"/>
       <c r="AU109" s="74"/>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>206</v>
       </c>
@@ -16035,7 +16035,7 @@
       <c r="AT110" s="74"/>
       <c r="AU110" s="74"/>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B111" s="78" t="s">
         <v>207</v>
       </c>
@@ -16085,7 +16085,7 @@
       <c r="AT111" s="74"/>
       <c r="AU111" s="74"/>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>204</v>
       </c>
@@ -16135,7 +16135,7 @@
       <c r="AT112" s="74"/>
       <c r="AU112" s="74"/>
     </row>
-    <row r="113" spans="2:47" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="74"/>
       <c r="D113" s="74"/>
@@ -16183,7 +16183,7 @@
       <c r="AT113" s="74"/>
       <c r="AU113" s="74"/>
     </row>
-    <row r="114" spans="2:47" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="74"/>
       <c r="D114" s="74"/>
@@ -16233,11 +16233,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F755A457-BC26-4082-BD19-CE093742C5A8}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E5E40811-1758-47A3-ADE0-CCD864BE20C6}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{4AA46767-85AE-43CD-8F44-7CB5CB105EA9}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{5D5DC770-53FE-4B46-A23F-F345A6E39E15}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{D8BA2B29-B703-4B7C-965F-AD179103396B}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{412644FB-5C64-4C91-A724-0CCBB07E15F7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A1945628-BDB5-4AB3-A17E-C07723784F94}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{37D83037-62E2-44E4-A01B-06BA448E5903}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{7A0ED2FC-8081-4AAD-959A-9F55F092F6B5}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{BEDAB7E9-BC75-492D-9DB0-8A0AE5E85F3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab32.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14420A1C-47EB-4BBC-BDC9-AEC2C9939FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D61155F4-577C-4D9D-90D2-2855DDFB3C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5527C8AD-1339-47DE-86FA-8FBA99F79864}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{36DF3A11-796B-45FD-A845-DBC5BBD87C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab32" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,13 +797,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -967,7 +960,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1187,10 +1180,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1506,7 +1498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0E68A9-F237-4389-905C-B1FF72170604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFDAE9A-5275-4C5F-9AF3-E72908548072}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15790,7 +15782,6 @@
       <c r="AU105" s="74"/>
     </row>
     <row r="106" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
       <c r="E106" s="74"/>
@@ -15838,7 +15829,7 @@
       <c r="AU106" s="74"/>
     </row>
     <row r="107" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="76" t="s">
+      <c r="B107" s="75" t="s">
         <v>203</v>
       </c>
       <c r="C107" s="74"/>
@@ -15888,7 +15879,7 @@
       <c r="AU107" s="74"/>
     </row>
     <row r="108" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="76"/>
+      <c r="B108" s="75"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
       <c r="E108" s="74"/>
@@ -16036,7 +16027,7 @@
       <c r="AU110" s="74"/>
     </row>
     <row r="111" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B111" s="78" t="s">
+      <c r="B111" s="76" t="s">
         <v>207</v>
       </c>
       <c r="C111" s="74"/>
@@ -16086,7 +16077,7 @@
       <c r="AU111" s="74"/>
     </row>
     <row r="112" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>204</v>
       </c>
       <c r="C112" s="74"/>
@@ -16233,11 +16224,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{412644FB-5C64-4C91-A724-0CCBB07E15F7}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A1945628-BDB5-4AB3-A17E-C07723784F94}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{37D83037-62E2-44E4-A01B-06BA448E5903}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{7A0ED2FC-8081-4AAD-959A-9F55F092F6B5}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{BEDAB7E9-BC75-492D-9DB0-8A0AE5E85F3F}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C75621BD-243E-4260-82B3-7AB98B516B84}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{AAFEC255-CA25-439F-A166-E9C5D08ED7F9}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{01E24A2C-1B90-40F7-BD02-8640242E5120}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{1DD7D241-8BDF-4782-9B99-391DBEE9C320}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{516500D6-89FE-4556-9E02-6E54A5C14ACB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab32.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D61155F4-577C-4D9D-90D2-2855DDFB3C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{052AFDF5-B260-4EB2-A9EF-4D99E8469E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{36DF3A11-796B-45FD-A845-DBC5BBD87C27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02D83BDB-3891-4C69-BC70-74B67154AA33}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab32" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="210">
   <si>
     <t>Tableau 32 : Emploi par profession</t>
   </si>
@@ -567,13 +567,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -829,7 +835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -954,13 +960,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1158,7 +1201,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1169,6 +1215,12 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1498,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFDAE9A-5275-4C5F-9AF3-E72908548072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D92AB86-72A4-4636-9E67-4C7A7685D301}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1510,7 +1562,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="4" max="47" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10863,7 +10915,7 @@
       <c r="A67" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="67" t="s">
         <v>168</v>
       </c>
       <c r="C67" s="60">
@@ -11006,7 +11058,7 @@
       <c r="A68" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="67" t="s">
         <v>169</v>
       </c>
       <c r="C68" s="60">
@@ -11149,7 +11201,7 @@
       <c r="A69" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="67" t="s">
         <v>170</v>
       </c>
       <c r="C69" s="60">
@@ -11292,7 +11344,7 @@
       <c r="A70" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="67" t="s">
         <v>171</v>
       </c>
       <c r="C70" s="60">
@@ -11435,7 +11487,7 @@
       <c r="A71" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="67" t="s">
         <v>172</v>
       </c>
       <c r="C71" s="60">
@@ -11578,7 +11630,7 @@
       <c r="A72" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="67" t="s">
         <v>173</v>
       </c>
       <c r="C72" s="60">
@@ -11721,7 +11773,7 @@
       <c r="A73" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="67" t="s">
         <v>174</v>
       </c>
       <c r="C73" s="60">
@@ -11864,8 +11916,8 @@
       <c r="A74" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="51" t="s">
-        <v>174</v>
+      <c r="B74" s="67" t="s">
+        <v>175</v>
       </c>
       <c r="C74" s="60">
         <v>26759.893</v>
@@ -12007,8 +12059,8 @@
       <c r="A75" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="51" t="s">
-        <v>175</v>
+      <c r="B75" s="67" t="s">
+        <v>176</v>
       </c>
       <c r="C75" s="52">
         <v>25435.739000000001</v>
@@ -12150,142 +12202,142 @@
       <c r="A76" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="C76" s="68">
+      <c r="B76" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="69">
         <v>319840.65700000001</v>
       </c>
-      <c r="D76" s="69">
+      <c r="D76" s="70">
         <v>96517.035000000003</v>
       </c>
-      <c r="E76" s="69">
+      <c r="E76" s="70">
         <v>2245.2440000000001</v>
       </c>
-      <c r="F76" s="69">
+      <c r="F76" s="70">
         <v>46432.4</v>
       </c>
-      <c r="G76" s="69">
+      <c r="G76" s="70">
         <v>1721.3119999999999</v>
       </c>
-      <c r="H76" s="69">
+      <c r="H76" s="70">
         <v>22673.550999999999</v>
       </c>
-      <c r="I76" s="69">
+      <c r="I76" s="70">
         <v>58530.324999999997</v>
       </c>
-      <c r="J76" s="69">
+      <c r="J76" s="70">
         <v>16812.842000000001</v>
       </c>
-      <c r="K76" s="69">
+      <c r="K76" s="70">
         <v>16270.861999999999</v>
       </c>
-      <c r="L76" s="69">
+      <c r="L76" s="70">
         <v>4792.5889999999999</v>
       </c>
-      <c r="M76" s="69">
+      <c r="M76" s="70">
         <v>9122.6119999999992</v>
       </c>
-      <c r="N76" s="69">
+      <c r="N76" s="70">
         <v>12740.69</v>
       </c>
-      <c r="O76" s="69">
+      <c r="O76" s="70">
         <v>13030.839</v>
       </c>
-      <c r="P76" s="69">
+      <c r="P76" s="70">
         <v>4901.9139999999998</v>
       </c>
-      <c r="Q76" s="70">
+      <c r="Q76" s="71">
         <v>14048.447</v>
       </c>
-      <c r="R76" s="68">
+      <c r="R76" s="69">
         <v>133288.02499999999</v>
       </c>
-      <c r="S76" s="69">
+      <c r="S76" s="70">
         <v>36514.322</v>
       </c>
-      <c r="T76" s="69">
+      <c r="T76" s="70">
         <v>229.584</v>
       </c>
-      <c r="U76" s="69">
+      <c r="U76" s="70">
         <v>21929.476999999999</v>
       </c>
-      <c r="V76" s="69">
+      <c r="V76" s="70">
         <v>388.12200000000001</v>
       </c>
-      <c r="W76" s="69">
+      <c r="W76" s="70">
         <v>1481.1559999999999</v>
       </c>
-      <c r="X76" s="69">
+      <c r="X76" s="70">
         <v>31074.149000000001</v>
       </c>
-      <c r="Y76" s="69">
+      <c r="Y76" s="70">
         <v>1701.865</v>
       </c>
-      <c r="Z76" s="69">
+      <c r="Z76" s="70">
         <v>9690.3900000000103</v>
       </c>
-      <c r="AA76" s="69">
+      <c r="AA76" s="70">
         <v>2239.0250000000001</v>
       </c>
-      <c r="AB76" s="69">
+      <c r="AB76" s="70">
         <v>3494.056</v>
       </c>
-      <c r="AC76" s="69">
+      <c r="AC76" s="70">
         <v>4323.6750000000002</v>
       </c>
-      <c r="AD76" s="69">
+      <c r="AD76" s="70">
         <v>8696.0339999999997</v>
       </c>
-      <c r="AE76" s="69">
+      <c r="AE76" s="70">
         <v>3486.3229999999999</v>
       </c>
-      <c r="AF76" s="70">
+      <c r="AF76" s="71">
         <v>8039.848</v>
       </c>
-      <c r="AG76" s="68">
+      <c r="AG76" s="69">
         <v>186552.63</v>
       </c>
-      <c r="AH76" s="69">
+      <c r="AH76" s="70">
         <v>60002.714</v>
       </c>
-      <c r="AI76" s="69">
+      <c r="AI76" s="70">
         <v>2015.66</v>
       </c>
-      <c r="AJ76" s="69">
+      <c r="AJ76" s="70">
         <v>24502.922999999999</v>
       </c>
-      <c r="AK76" s="69">
+      <c r="AK76" s="70">
         <v>1333.19</v>
       </c>
-      <c r="AL76" s="69">
+      <c r="AL76" s="70">
         <v>21192.395</v>
       </c>
-      <c r="AM76" s="69">
+      <c r="AM76" s="70">
         <v>27456.174999999999</v>
       </c>
-      <c r="AN76" s="69">
+      <c r="AN76" s="70">
         <v>15110.976000000001</v>
       </c>
-      <c r="AO76" s="69">
+      <c r="AO76" s="70">
         <v>6580.473</v>
       </c>
-      <c r="AP76" s="69">
+      <c r="AP76" s="70">
         <v>2553.5680000000002</v>
       </c>
-      <c r="AQ76" s="69">
+      <c r="AQ76" s="70">
         <v>5628.5569999999998</v>
       </c>
-      <c r="AR76" s="69">
+      <c r="AR76" s="70">
         <v>8417.0139999999992</v>
       </c>
-      <c r="AS76" s="69">
+      <c r="AS76" s="70">
         <v>4334.8059999999996</v>
       </c>
-      <c r="AT76" s="69">
+      <c r="AT76" s="70">
         <v>1415.5889999999999</v>
       </c>
-      <c r="AU76" s="70">
+      <c r="AU76" s="71">
         <v>6008.5959999999995</v>
       </c>
     </row>
@@ -12293,8 +12345,8 @@
       <c r="A77" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="51" t="s">
-        <v>177</v>
+      <c r="B77" s="67" t="s">
+        <v>178</v>
       </c>
       <c r="C77" s="60">
         <v>176726.91699999999</v>
@@ -12436,8 +12488,8 @@
       <c r="A78" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="51" t="s">
-        <v>177</v>
+      <c r="B78" s="67" t="s">
+        <v>179</v>
       </c>
       <c r="C78" s="60">
         <v>199883.899</v>
@@ -12579,8 +12631,8 @@
       <c r="A79" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="63" t="s">
-        <v>178</v>
+      <c r="B79" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="C79" s="64">
         <v>621750.39800000004</v>
@@ -12723,7 +12775,7 @@
         <v>68</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C80" s="60">
         <v>35753.055999999997</v>
@@ -12866,7 +12918,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C81" s="60">
         <v>187102.986</v>
@@ -13009,7 +13061,7 @@
         <v>68</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C82" s="60">
         <v>425966.32199999999</v>
@@ -13152,7 +13204,7 @@
         <v>68</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C83" s="52">
         <v>2554517.7250000001</v>
@@ -13294,142 +13346,142 @@
       <c r="A84" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="C84" s="68">
+      <c r="B84" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="69">
         <v>200722.90400000001</v>
       </c>
-      <c r="D84" s="69">
+      <c r="D84" s="70">
         <v>126361.394</v>
       </c>
-      <c r="E84" s="69">
+      <c r="E84" s="70">
         <v>2370.201</v>
       </c>
-      <c r="F84" s="69">
+      <c r="F84" s="70">
         <v>10306.811</v>
       </c>
-      <c r="G84" s="69">
+      <c r="G84" s="70">
         <v>635.02200000000005</v>
       </c>
-      <c r="H84" s="69">
+      <c r="H84" s="70">
         <v>4361.5150000000003</v>
       </c>
-      <c r="I84" s="69">
+      <c r="I84" s="70">
         <v>23482.613000000001</v>
       </c>
-      <c r="J84" s="69">
+      <c r="J84" s="70">
         <v>5275.72</v>
       </c>
-      <c r="K84" s="69">
+      <c r="K84" s="70">
         <v>2571.3989999999999</v>
       </c>
-      <c r="L84" s="69">
+      <c r="L84" s="70">
         <v>852.101</v>
       </c>
-      <c r="M84" s="69">
+      <c r="M84" s="70">
         <v>2553.8649999999998</v>
       </c>
-      <c r="N84" s="69">
+      <c r="N84" s="70">
         <v>2834.9929999999999</v>
       </c>
-      <c r="O84" s="69">
+      <c r="O84" s="70">
         <v>4941.643</v>
       </c>
-      <c r="P84" s="69">
+      <c r="P84" s="70">
         <v>1966.4849999999999</v>
       </c>
-      <c r="Q84" s="70">
+      <c r="Q84" s="71">
         <v>12209.138999999999</v>
       </c>
-      <c r="R84" s="68">
+      <c r="R84" s="69">
         <v>91740.342000000004</v>
       </c>
-      <c r="S84" s="69">
+      <c r="S84" s="70">
         <v>59683.328999999998</v>
       </c>
-      <c r="T84" s="69">
+      <c r="T84" s="70">
         <v>439.85199999999998</v>
       </c>
-      <c r="U84" s="69">
+      <c r="U84" s="70">
         <v>4573.7389999999996</v>
       </c>
-      <c r="V84" s="69">
+      <c r="V84" s="70">
         <v>301.49599999999998</v>
       </c>
-      <c r="W84" s="69">
+      <c r="W84" s="70">
         <v>402.82900000000001</v>
       </c>
-      <c r="X84" s="69">
+      <c r="X84" s="70">
         <v>11459.710999999999</v>
       </c>
-      <c r="Y84" s="69">
+      <c r="Y84" s="70">
         <v>293.70600000000002</v>
       </c>
-      <c r="Z84" s="69">
+      <c r="Z84" s="70">
         <v>1881.6869999999999</v>
       </c>
-      <c r="AA84" s="69">
+      <c r="AA84" s="70">
         <v>276.64100000000002</v>
       </c>
-      <c r="AB84" s="69">
+      <c r="AB84" s="70">
         <v>668.50800000000004</v>
       </c>
-      <c r="AC84" s="69">
+      <c r="AC84" s="70">
         <v>748.82</v>
       </c>
-      <c r="AD84" s="69">
+      <c r="AD84" s="70">
         <v>2206.9899999999998</v>
       </c>
-      <c r="AE84" s="69">
+      <c r="AE84" s="70">
         <v>1049.5409999999999</v>
       </c>
-      <c r="AF84" s="70">
+      <c r="AF84" s="71">
         <v>7753.4970000000003</v>
       </c>
-      <c r="AG84" s="68">
+      <c r="AG84" s="69">
         <v>108982.561</v>
       </c>
-      <c r="AH84" s="69">
+      <c r="AH84" s="70">
         <v>66678.065000000002</v>
       </c>
-      <c r="AI84" s="69">
+      <c r="AI84" s="70">
         <v>1930.3489999999999</v>
       </c>
-      <c r="AJ84" s="69">
+      <c r="AJ84" s="70">
         <v>5733.0709999999999</v>
       </c>
-      <c r="AK84" s="69">
+      <c r="AK84" s="70">
         <v>333.52499999999998</v>
       </c>
-      <c r="AL84" s="69">
+      <c r="AL84" s="70">
         <v>3958.6869999999999</v>
       </c>
-      <c r="AM84" s="69">
+      <c r="AM84" s="70">
         <v>12022.898999999999</v>
       </c>
-      <c r="AN84" s="69">
+      <c r="AN84" s="70">
         <v>4982.0129999999999</v>
       </c>
-      <c r="AO84" s="69">
+      <c r="AO84" s="70">
         <v>689.71</v>
       </c>
-      <c r="AP84" s="69">
+      <c r="AP84" s="70">
         <v>575.46299999999997</v>
       </c>
-      <c r="AQ84" s="69">
+      <c r="AQ84" s="70">
         <v>1885.36</v>
       </c>
-      <c r="AR84" s="69">
+      <c r="AR84" s="70">
         <v>2086.1750000000002</v>
       </c>
-      <c r="AS84" s="69">
+      <c r="AS84" s="70">
         <v>2734.6550000000002</v>
       </c>
-      <c r="AT84" s="69">
+      <c r="AT84" s="70">
         <v>916.94600000000003</v>
       </c>
-      <c r="AU84" s="70">
+      <c r="AU84" s="71">
         <v>4455.6409999999996</v>
       </c>
     </row>
@@ -13437,8 +13489,8 @@
       <c r="A85" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B85" s="71" t="s">
-        <v>184</v>
+      <c r="B85" s="74" t="s">
+        <v>186</v>
       </c>
       <c r="C85" s="60">
         <v>32198.942999999999</v>
@@ -13581,7 +13633,7 @@
         <v>68</v>
       </c>
       <c r="B86" s="51" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C86" s="60">
         <v>238825.95300000001</v>
@@ -13724,7 +13776,7 @@
         <v>68</v>
       </c>
       <c r="B87" s="51" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C87" s="60">
         <v>847067.44299999997</v>
@@ -13867,7 +13919,7 @@
         <v>68</v>
       </c>
       <c r="B88" s="51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C88" s="60">
         <v>22170.521000000001</v>
@@ -14010,7 +14062,7 @@
         <v>68</v>
       </c>
       <c r="B89" s="51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C89" s="60">
         <v>1284999.19</v>
@@ -14153,7 +14205,7 @@
         <v>68</v>
       </c>
       <c r="B90" s="63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C90" s="64">
         <v>567740.33900000004</v>
@@ -14296,7 +14348,7 @@
         <v>68</v>
       </c>
       <c r="B91" s="51" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C91" s="60">
         <v>260271.59</v>
@@ -14439,7 +14491,7 @@
         <v>68</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C92" s="60">
         <v>127696.732</v>
@@ -14582,7 +14634,7 @@
         <v>68</v>
       </c>
       <c r="B93" s="51" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C93" s="60">
         <v>1638.386</v>
@@ -14725,7 +14777,7 @@
         <v>68</v>
       </c>
       <c r="B94" s="51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C94" s="60">
         <v>24762.54</v>
@@ -14868,7 +14920,7 @@
         <v>68</v>
       </c>
       <c r="B95" s="51" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C95" s="60">
         <v>133369.01199999999</v>
@@ -15011,7 +15063,7 @@
         <v>68</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C96" s="52">
         <v>64580.063999999998</v>
@@ -15153,142 +15205,142 @@
       <c r="A97" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B97" s="67" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="68">
+      <c r="B97" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="69">
         <v>298322.58600000001</v>
       </c>
-      <c r="D97" s="69">
+      <c r="D97" s="70">
         <v>162065.87400000001</v>
       </c>
-      <c r="E97" s="69">
+      <c r="E97" s="70">
         <v>2331.297</v>
       </c>
-      <c r="F97" s="69">
+      <c r="F97" s="70">
         <v>19718.062000000002</v>
       </c>
-      <c r="G97" s="69">
+      <c r="G97" s="70">
         <v>1207.018</v>
       </c>
-      <c r="H97" s="69">
+      <c r="H97" s="70">
         <v>8165.57</v>
       </c>
-      <c r="I97" s="69">
+      <c r="I97" s="70">
         <v>42970.752999999997</v>
       </c>
-      <c r="J97" s="69">
+      <c r="J97" s="70">
         <v>9873.7289999999994</v>
       </c>
-      <c r="K97" s="69">
+      <c r="K97" s="70">
         <v>6997.4560000000001</v>
       </c>
-      <c r="L97" s="69">
+      <c r="L97" s="70">
         <v>1397.7049999999999</v>
       </c>
-      <c r="M97" s="69">
+      <c r="M97" s="70">
         <v>6511.29</v>
       </c>
-      <c r="N97" s="69">
+      <c r="N97" s="70">
         <v>4245.5159999999996</v>
       </c>
-      <c r="O97" s="69">
+      <c r="O97" s="70">
         <v>9348.0740000000005</v>
       </c>
-      <c r="P97" s="69">
+      <c r="P97" s="70">
         <v>3895.172</v>
       </c>
-      <c r="Q97" s="70">
+      <c r="Q97" s="71">
         <v>19595.076000000001</v>
       </c>
-      <c r="R97" s="68">
+      <c r="R97" s="69">
         <v>137586.44099999999</v>
       </c>
-      <c r="S97" s="69">
+      <c r="S97" s="70">
         <v>72241.680999999997</v>
       </c>
-      <c r="T97" s="69">
+      <c r="T97" s="70">
         <v>579.44299999999998</v>
       </c>
-      <c r="U97" s="69">
+      <c r="U97" s="70">
         <v>9117.8060000000005</v>
       </c>
-      <c r="V97" s="69">
+      <c r="V97" s="70">
         <v>439.12900000000002</v>
       </c>
-      <c r="W97" s="69">
+      <c r="W97" s="70">
         <v>719.09299999999996</v>
       </c>
-      <c r="X97" s="69">
+      <c r="X97" s="70">
         <v>25901.758999999998</v>
       </c>
-      <c r="Y97" s="69">
+      <c r="Y97" s="70">
         <v>747.72299999999996</v>
       </c>
-      <c r="Z97" s="69">
+      <c r="Z97" s="70">
         <v>5383.8639999999996</v>
       </c>
-      <c r="AA97" s="69">
+      <c r="AA97" s="70">
         <v>566.29300000000001</v>
       </c>
-      <c r="AB97" s="69">
+      <c r="AB97" s="70">
         <v>2015.539</v>
       </c>
-      <c r="AC97" s="69">
+      <c r="AC97" s="70">
         <v>1161.4469999999999</v>
       </c>
-      <c r="AD97" s="69">
+      <c r="AD97" s="70">
         <v>4338.0259999999998</v>
       </c>
-      <c r="AE97" s="69">
+      <c r="AE97" s="70">
         <v>2163.924</v>
       </c>
-      <c r="AF97" s="70">
+      <c r="AF97" s="71">
         <v>12210.707</v>
       </c>
-      <c r="AG97" s="68">
+      <c r="AG97" s="69">
         <v>160736.14799999999</v>
       </c>
-      <c r="AH97" s="69">
+      <c r="AH97" s="70">
         <v>89824.192999999999</v>
       </c>
-      <c r="AI97" s="69">
+      <c r="AI97" s="70">
         <v>1751.855</v>
       </c>
-      <c r="AJ97" s="69">
+      <c r="AJ97" s="70">
         <v>10600.254999999999</v>
       </c>
-      <c r="AK97" s="69">
+      <c r="AK97" s="70">
         <v>767.88499999999999</v>
       </c>
-      <c r="AL97" s="69">
+      <c r="AL97" s="70">
         <v>7446.4709999999995</v>
       </c>
-      <c r="AM97" s="69">
+      <c r="AM97" s="70">
         <v>17068.988000000001</v>
       </c>
-      <c r="AN97" s="69">
+      <c r="AN97" s="70">
         <v>9126.0059999999994</v>
       </c>
-      <c r="AO97" s="69">
+      <c r="AO97" s="70">
         <v>1613.5909999999999</v>
       </c>
-      <c r="AP97" s="69">
+      <c r="AP97" s="70">
         <v>831.41099999999994</v>
       </c>
-      <c r="AQ97" s="69">
+      <c r="AQ97" s="70">
         <v>4495.7520000000004</v>
       </c>
-      <c r="AR97" s="69">
+      <c r="AR97" s="70">
         <v>3084.0709999999999</v>
       </c>
-      <c r="AS97" s="69">
+      <c r="AS97" s="70">
         <v>5010.049</v>
       </c>
-      <c r="AT97" s="69">
+      <c r="AT97" s="70">
         <v>1731.2470000000001</v>
       </c>
-      <c r="AU97" s="70">
+      <c r="AU97" s="71">
         <v>7384.3670000000002</v>
       </c>
     </row>
@@ -15297,7 +15349,7 @@
         <v>68</v>
       </c>
       <c r="B98" s="63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C98" s="64">
         <v>241540.712</v>
@@ -15436,8 +15488,8 @@
       </c>
     </row>
     <row r="99" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A99" s="72"/>
-      <c r="B99" s="73"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="76"/>
       <c r="C99" s="53"/>
       <c r="D99" s="53"/>
       <c r="E99" s="53"/>
@@ -15486,749 +15538,749 @@
     </row>
     <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="74"/>
-      <c r="L100" s="74"/>
-      <c r="M100" s="74"/>
-      <c r="N100" s="74"/>
-      <c r="O100" s="74"/>
-      <c r="P100" s="74"/>
-      <c r="Q100" s="74"/>
-      <c r="R100" s="74"/>
-      <c r="S100" s="74"/>
-      <c r="T100" s="74"/>
-      <c r="U100" s="74"/>
-      <c r="V100" s="74"/>
-      <c r="W100" s="74"/>
-      <c r="X100" s="74"/>
-      <c r="Y100" s="74"/>
-      <c r="Z100" s="74"/>
-      <c r="AA100" s="74"/>
-      <c r="AB100" s="74"/>
-      <c r="AC100" s="74"/>
-      <c r="AD100" s="74"/>
-      <c r="AE100" s="74"/>
-      <c r="AF100" s="74"/>
-      <c r="AG100" s="74"/>
-      <c r="AH100" s="74"/>
-      <c r="AI100" s="74"/>
-      <c r="AJ100" s="74"/>
-      <c r="AK100" s="74"/>
-      <c r="AL100" s="74"/>
-      <c r="AM100" s="74"/>
-      <c r="AN100" s="74"/>
-      <c r="AO100" s="74"/>
-      <c r="AP100" s="74"/>
-      <c r="AQ100" s="74"/>
-      <c r="AR100" s="74"/>
-      <c r="AS100" s="74"/>
-      <c r="AT100" s="74"/>
-      <c r="AU100" s="74"/>
+        <v>200</v>
+      </c>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
+      <c r="M100" s="77"/>
+      <c r="N100" s="77"/>
+      <c r="O100" s="77"/>
+      <c r="P100" s="77"/>
+      <c r="Q100" s="77"/>
+      <c r="R100" s="77"/>
+      <c r="S100" s="77"/>
+      <c r="T100" s="77"/>
+      <c r="U100" s="77"/>
+      <c r="V100" s="77"/>
+      <c r="W100" s="77"/>
+      <c r="X100" s="77"/>
+      <c r="Y100" s="77"/>
+      <c r="Z100" s="77"/>
+      <c r="AA100" s="77"/>
+      <c r="AB100" s="77"/>
+      <c r="AC100" s="77"/>
+      <c r="AD100" s="77"/>
+      <c r="AE100" s="77"/>
+      <c r="AF100" s="77"/>
+      <c r="AG100" s="77"/>
+      <c r="AH100" s="77"/>
+      <c r="AI100" s="77"/>
+      <c r="AJ100" s="77"/>
+      <c r="AK100" s="77"/>
+      <c r="AL100" s="77"/>
+      <c r="AM100" s="77"/>
+      <c r="AN100" s="77"/>
+      <c r="AO100" s="77"/>
+      <c r="AP100" s="77"/>
+      <c r="AQ100" s="77"/>
+      <c r="AR100" s="77"/>
+      <c r="AS100" s="77"/>
+      <c r="AT100" s="77"/>
+      <c r="AU100" s="77"/>
     </row>
     <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="74"/>
-      <c r="K101" s="74"/>
-      <c r="L101" s="74"/>
-      <c r="M101" s="74"/>
-      <c r="N101" s="74"/>
-      <c r="O101" s="74"/>
-      <c r="P101" s="74"/>
-      <c r="Q101" s="74"/>
-      <c r="R101" s="74"/>
-      <c r="S101" s="74"/>
-      <c r="T101" s="74"/>
-      <c r="U101" s="74"/>
-      <c r="V101" s="74"/>
-      <c r="W101" s="74"/>
-      <c r="X101" s="74"/>
-      <c r="Y101" s="74"/>
-      <c r="Z101" s="74"/>
-      <c r="AA101" s="74"/>
-      <c r="AB101" s="74"/>
-      <c r="AC101" s="74"/>
-      <c r="AD101" s="74"/>
-      <c r="AE101" s="74"/>
-      <c r="AF101" s="74"/>
-      <c r="AG101" s="74"/>
-      <c r="AH101" s="74"/>
-      <c r="AI101" s="74"/>
-      <c r="AJ101" s="74"/>
-      <c r="AK101" s="74"/>
-      <c r="AL101" s="74"/>
-      <c r="AM101" s="74"/>
-      <c r="AN101" s="74"/>
-      <c r="AO101" s="74"/>
-      <c r="AP101" s="74"/>
-      <c r="AQ101" s="74"/>
-      <c r="AR101" s="74"/>
-      <c r="AS101" s="74"/>
-      <c r="AT101" s="74"/>
-      <c r="AU101" s="74"/>
+        <v>201</v>
+      </c>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
+      <c r="M101" s="77"/>
+      <c r="N101" s="77"/>
+      <c r="O101" s="77"/>
+      <c r="P101" s="77"/>
+      <c r="Q101" s="77"/>
+      <c r="R101" s="77"/>
+      <c r="S101" s="77"/>
+      <c r="T101" s="77"/>
+      <c r="U101" s="77"/>
+      <c r="V101" s="77"/>
+      <c r="W101" s="77"/>
+      <c r="X101" s="77"/>
+      <c r="Y101" s="77"/>
+      <c r="Z101" s="77"/>
+      <c r="AA101" s="77"/>
+      <c r="AB101" s="77"/>
+      <c r="AC101" s="77"/>
+      <c r="AD101" s="77"/>
+      <c r="AE101" s="77"/>
+      <c r="AF101" s="77"/>
+      <c r="AG101" s="77"/>
+      <c r="AH101" s="77"/>
+      <c r="AI101" s="77"/>
+      <c r="AJ101" s="77"/>
+      <c r="AK101" s="77"/>
+      <c r="AL101" s="77"/>
+      <c r="AM101" s="77"/>
+      <c r="AN101" s="77"/>
+      <c r="AO101" s="77"/>
+      <c r="AP101" s="77"/>
+      <c r="AQ101" s="77"/>
+      <c r="AR101" s="77"/>
+      <c r="AS101" s="77"/>
+      <c r="AT101" s="77"/>
+      <c r="AU101" s="77"/>
     </row>
     <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="74"/>
-      <c r="L102" s="74"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="74"/>
-      <c r="O102" s="74"/>
-      <c r="P102" s="74"/>
-      <c r="Q102" s="74"/>
-      <c r="R102" s="74"/>
-      <c r="S102" s="74"/>
-      <c r="T102" s="74"/>
-      <c r="U102" s="74"/>
-      <c r="V102" s="74"/>
-      <c r="W102" s="74"/>
-      <c r="X102" s="74"/>
-      <c r="Y102" s="74"/>
-      <c r="Z102" s="74"/>
-      <c r="AA102" s="74"/>
-      <c r="AB102" s="74"/>
-      <c r="AC102" s="74"/>
-      <c r="AD102" s="74"/>
-      <c r="AE102" s="74"/>
-      <c r="AF102" s="74"/>
-      <c r="AG102" s="74"/>
-      <c r="AH102" s="74"/>
-      <c r="AI102" s="74"/>
-      <c r="AJ102" s="74"/>
-      <c r="AK102" s="74"/>
-      <c r="AL102" s="74"/>
-      <c r="AM102" s="74"/>
-      <c r="AN102" s="74"/>
-      <c r="AO102" s="74"/>
-      <c r="AP102" s="74"/>
-      <c r="AQ102" s="74"/>
-      <c r="AR102" s="74"/>
-      <c r="AS102" s="74"/>
-      <c r="AT102" s="74"/>
-      <c r="AU102" s="74"/>
+        <v>202</v>
+      </c>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
+      <c r="M102" s="77"/>
+      <c r="N102" s="77"/>
+      <c r="O102" s="77"/>
+      <c r="P102" s="77"/>
+      <c r="Q102" s="77"/>
+      <c r="R102" s="77"/>
+      <c r="S102" s="77"/>
+      <c r="T102" s="77"/>
+      <c r="U102" s="77"/>
+      <c r="V102" s="77"/>
+      <c r="W102" s="77"/>
+      <c r="X102" s="77"/>
+      <c r="Y102" s="77"/>
+      <c r="Z102" s="77"/>
+      <c r="AA102" s="77"/>
+      <c r="AB102" s="77"/>
+      <c r="AC102" s="77"/>
+      <c r="AD102" s="77"/>
+      <c r="AE102" s="77"/>
+      <c r="AF102" s="77"/>
+      <c r="AG102" s="77"/>
+      <c r="AH102" s="77"/>
+      <c r="AI102" s="77"/>
+      <c r="AJ102" s="77"/>
+      <c r="AK102" s="77"/>
+      <c r="AL102" s="77"/>
+      <c r="AM102" s="77"/>
+      <c r="AN102" s="77"/>
+      <c r="AO102" s="77"/>
+      <c r="AP102" s="77"/>
+      <c r="AQ102" s="77"/>
+      <c r="AR102" s="77"/>
+      <c r="AS102" s="77"/>
+      <c r="AT102" s="77"/>
+      <c r="AU102" s="77"/>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="74"/>
-      <c r="K103" s="74"/>
-      <c r="L103" s="74"/>
-      <c r="M103" s="74"/>
-      <c r="N103" s="74"/>
-      <c r="O103" s="74"/>
-      <c r="P103" s="74"/>
-      <c r="Q103" s="74"/>
-      <c r="R103" s="74"/>
-      <c r="S103" s="74"/>
-      <c r="T103" s="74"/>
-      <c r="U103" s="74"/>
-      <c r="V103" s="74"/>
-      <c r="W103" s="74"/>
-      <c r="X103" s="74"/>
-      <c r="Y103" s="74"/>
-      <c r="Z103" s="74"/>
-      <c r="AA103" s="74"/>
-      <c r="AB103" s="74"/>
-      <c r="AC103" s="74"/>
-      <c r="AD103" s="74"/>
-      <c r="AE103" s="74"/>
-      <c r="AF103" s="74"/>
-      <c r="AG103" s="74"/>
-      <c r="AH103" s="74"/>
-      <c r="AI103" s="74"/>
-      <c r="AJ103" s="74"/>
-      <c r="AK103" s="74"/>
-      <c r="AL103" s="74"/>
-      <c r="AM103" s="74"/>
-      <c r="AN103" s="74"/>
-      <c r="AO103" s="74"/>
-      <c r="AP103" s="74"/>
-      <c r="AQ103" s="74"/>
-      <c r="AR103" s="74"/>
-      <c r="AS103" s="74"/>
-      <c r="AT103" s="74"/>
-      <c r="AU103" s="74"/>
+        <v>203</v>
+      </c>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
+      <c r="M103" s="77"/>
+      <c r="N103" s="77"/>
+      <c r="O103" s="77"/>
+      <c r="P103" s="77"/>
+      <c r="Q103" s="77"/>
+      <c r="R103" s="77"/>
+      <c r="S103" s="77"/>
+      <c r="T103" s="77"/>
+      <c r="U103" s="77"/>
+      <c r="V103" s="77"/>
+      <c r="W103" s="77"/>
+      <c r="X103" s="77"/>
+      <c r="Y103" s="77"/>
+      <c r="Z103" s="77"/>
+      <c r="AA103" s="77"/>
+      <c r="AB103" s="77"/>
+      <c r="AC103" s="77"/>
+      <c r="AD103" s="77"/>
+      <c r="AE103" s="77"/>
+      <c r="AF103" s="77"/>
+      <c r="AG103" s="77"/>
+      <c r="AH103" s="77"/>
+      <c r="AI103" s="77"/>
+      <c r="AJ103" s="77"/>
+      <c r="AK103" s="77"/>
+      <c r="AL103" s="77"/>
+      <c r="AM103" s="77"/>
+      <c r="AN103" s="77"/>
+      <c r="AO103" s="77"/>
+      <c r="AP103" s="77"/>
+      <c r="AQ103" s="77"/>
+      <c r="AR103" s="77"/>
+      <c r="AS103" s="77"/>
+      <c r="AT103" s="77"/>
+      <c r="AU103" s="77"/>
     </row>
     <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="74"/>
-      <c r="K104" s="74"/>
-      <c r="L104" s="74"/>
-      <c r="M104" s="74"/>
-      <c r="N104" s="74"/>
-      <c r="O104" s="74"/>
-      <c r="P104" s="74"/>
-      <c r="Q104" s="74"/>
-      <c r="R104" s="74"/>
-      <c r="S104" s="74"/>
-      <c r="T104" s="74"/>
-      <c r="U104" s="74"/>
-      <c r="V104" s="74"/>
-      <c r="W104" s="74"/>
-      <c r="X104" s="74"/>
-      <c r="Y104" s="74"/>
-      <c r="Z104" s="74"/>
-      <c r="AA104" s="74"/>
-      <c r="AB104" s="74"/>
-      <c r="AC104" s="74"/>
-      <c r="AD104" s="74"/>
-      <c r="AE104" s="74"/>
-      <c r="AF104" s="74"/>
-      <c r="AG104" s="74"/>
-      <c r="AH104" s="74"/>
-      <c r="AI104" s="74"/>
-      <c r="AJ104" s="74"/>
-      <c r="AK104" s="74"/>
-      <c r="AL104" s="74"/>
-      <c r="AM104" s="74"/>
-      <c r="AN104" s="74"/>
-      <c r="AO104" s="74"/>
-      <c r="AP104" s="74"/>
-      <c r="AQ104" s="74"/>
-      <c r="AR104" s="74"/>
-      <c r="AS104" s="74"/>
-      <c r="AT104" s="74"/>
-      <c r="AU104" s="74"/>
+        <v>204</v>
+      </c>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="77"/>
+      <c r="R104" s="77"/>
+      <c r="S104" s="77"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="77"/>
+      <c r="V104" s="77"/>
+      <c r="W104" s="77"/>
+      <c r="X104" s="77"/>
+      <c r="Y104" s="77"/>
+      <c r="Z104" s="77"/>
+      <c r="AA104" s="77"/>
+      <c r="AB104" s="77"/>
+      <c r="AC104" s="77"/>
+      <c r="AD104" s="77"/>
+      <c r="AE104" s="77"/>
+      <c r="AF104" s="77"/>
+      <c r="AG104" s="77"/>
+      <c r="AH104" s="77"/>
+      <c r="AI104" s="77"/>
+      <c r="AJ104" s="77"/>
+      <c r="AK104" s="77"/>
+      <c r="AL104" s="77"/>
+      <c r="AM104" s="77"/>
+      <c r="AN104" s="77"/>
+      <c r="AO104" s="77"/>
+      <c r="AP104" s="77"/>
+      <c r="AQ104" s="77"/>
+      <c r="AR104" s="77"/>
+      <c r="AS104" s="77"/>
+      <c r="AT104" s="77"/>
+      <c r="AU104" s="77"/>
     </row>
     <row r="105" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="74"/>
-      <c r="M105" s="74"/>
-      <c r="N105" s="74"/>
-      <c r="O105" s="74"/>
-      <c r="P105" s="74"/>
-      <c r="Q105" s="74"/>
-      <c r="R105" s="74"/>
-      <c r="S105" s="74"/>
-      <c r="T105" s="74"/>
-      <c r="U105" s="74"/>
-      <c r="V105" s="74"/>
-      <c r="W105" s="74"/>
-      <c r="X105" s="74"/>
-      <c r="Y105" s="74"/>
-      <c r="Z105" s="74"/>
-      <c r="AA105" s="74"/>
-      <c r="AB105" s="74"/>
-      <c r="AC105" s="74"/>
-      <c r="AD105" s="74"/>
-      <c r="AE105" s="74"/>
-      <c r="AF105" s="74"/>
-      <c r="AG105" s="74"/>
-      <c r="AH105" s="74"/>
-      <c r="AI105" s="74"/>
-      <c r="AJ105" s="74"/>
-      <c r="AK105" s="74"/>
-      <c r="AL105" s="74"/>
-      <c r="AM105" s="74"/>
-      <c r="AN105" s="74"/>
-      <c r="AO105" s="74"/>
-      <c r="AP105" s="74"/>
-      <c r="AQ105" s="74"/>
-      <c r="AR105" s="74"/>
-      <c r="AS105" s="74"/>
-      <c r="AT105" s="74"/>
-      <c r="AU105" s="74"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
+      <c r="T105" s="77"/>
+      <c r="U105" s="77"/>
+      <c r="V105" s="77"/>
+      <c r="W105" s="77"/>
+      <c r="X105" s="77"/>
+      <c r="Y105" s="77"/>
+      <c r="Z105" s="77"/>
+      <c r="AA105" s="77"/>
+      <c r="AB105" s="77"/>
+      <c r="AC105" s="77"/>
+      <c r="AD105" s="77"/>
+      <c r="AE105" s="77"/>
+      <c r="AF105" s="77"/>
+      <c r="AG105" s="77"/>
+      <c r="AH105" s="77"/>
+      <c r="AI105" s="77"/>
+      <c r="AJ105" s="77"/>
+      <c r="AK105" s="77"/>
+      <c r="AL105" s="77"/>
+      <c r="AM105" s="77"/>
+      <c r="AN105" s="77"/>
+      <c r="AO105" s="77"/>
+      <c r="AP105" s="77"/>
+      <c r="AQ105" s="77"/>
+      <c r="AR105" s="77"/>
+      <c r="AS105" s="77"/>
+      <c r="AT105" s="77"/>
+      <c r="AU105" s="77"/>
     </row>
     <row r="106" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="74"/>
-      <c r="K106" s="74"/>
-      <c r="L106" s="74"/>
-      <c r="M106" s="74"/>
-      <c r="N106" s="74"/>
-      <c r="O106" s="74"/>
-      <c r="P106" s="74"/>
-      <c r="Q106" s="74"/>
-      <c r="R106" s="74"/>
-      <c r="S106" s="74"/>
-      <c r="T106" s="74"/>
-      <c r="U106" s="74"/>
-      <c r="V106" s="74"/>
-      <c r="W106" s="74"/>
-      <c r="X106" s="74"/>
-      <c r="Y106" s="74"/>
-      <c r="Z106" s="74"/>
-      <c r="AA106" s="74"/>
-      <c r="AB106" s="74"/>
-      <c r="AC106" s="74"/>
-      <c r="AD106" s="74"/>
-      <c r="AE106" s="74"/>
-      <c r="AF106" s="74"/>
-      <c r="AG106" s="74"/>
-      <c r="AH106" s="74"/>
-      <c r="AI106" s="74"/>
-      <c r="AJ106" s="74"/>
-      <c r="AK106" s="74"/>
-      <c r="AL106" s="74"/>
-      <c r="AM106" s="74"/>
-      <c r="AN106" s="74"/>
-      <c r="AO106" s="74"/>
-      <c r="AP106" s="74"/>
-      <c r="AQ106" s="74"/>
-      <c r="AR106" s="74"/>
-      <c r="AS106" s="74"/>
-      <c r="AT106" s="74"/>
-      <c r="AU106" s="74"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="77"/>
+      <c r="N106" s="77"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="77"/>
+      <c r="Q106" s="77"/>
+      <c r="R106" s="77"/>
+      <c r="S106" s="77"/>
+      <c r="T106" s="77"/>
+      <c r="U106" s="77"/>
+      <c r="V106" s="77"/>
+      <c r="W106" s="77"/>
+      <c r="X106" s="77"/>
+      <c r="Y106" s="77"/>
+      <c r="Z106" s="77"/>
+      <c r="AA106" s="77"/>
+      <c r="AB106" s="77"/>
+      <c r="AC106" s="77"/>
+      <c r="AD106" s="77"/>
+      <c r="AE106" s="77"/>
+      <c r="AF106" s="77"/>
+      <c r="AG106" s="77"/>
+      <c r="AH106" s="77"/>
+      <c r="AI106" s="77"/>
+      <c r="AJ106" s="77"/>
+      <c r="AK106" s="77"/>
+      <c r="AL106" s="77"/>
+      <c r="AM106" s="77"/>
+      <c r="AN106" s="77"/>
+      <c r="AO106" s="77"/>
+      <c r="AP106" s="77"/>
+      <c r="AQ106" s="77"/>
+      <c r="AR106" s="77"/>
+      <c r="AS106" s="77"/>
+      <c r="AT106" s="77"/>
+      <c r="AU106" s="77"/>
     </row>
     <row r="107" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
-      <c r="K107" s="74"/>
-      <c r="L107" s="74"/>
-      <c r="M107" s="74"/>
-      <c r="N107" s="74"/>
-      <c r="O107" s="74"/>
-      <c r="P107" s="74"/>
-      <c r="Q107" s="74"/>
-      <c r="R107" s="74"/>
-      <c r="S107" s="74"/>
-      <c r="T107" s="74"/>
-      <c r="U107" s="74"/>
-      <c r="V107" s="74"/>
-      <c r="W107" s="74"/>
-      <c r="X107" s="74"/>
-      <c r="Y107" s="74"/>
-      <c r="Z107" s="74"/>
-      <c r="AA107" s="74"/>
-      <c r="AB107" s="74"/>
-      <c r="AC107" s="74"/>
-      <c r="AD107" s="74"/>
-      <c r="AE107" s="74"/>
-      <c r="AF107" s="74"/>
-      <c r="AG107" s="74"/>
-      <c r="AH107" s="74"/>
-      <c r="AI107" s="74"/>
-      <c r="AJ107" s="74"/>
-      <c r="AK107" s="74"/>
-      <c r="AL107" s="74"/>
-      <c r="AM107" s="74"/>
-      <c r="AN107" s="74"/>
-      <c r="AO107" s="74"/>
-      <c r="AP107" s="74"/>
-      <c r="AQ107" s="74"/>
-      <c r="AR107" s="74"/>
-      <c r="AS107" s="74"/>
-      <c r="AT107" s="74"/>
-      <c r="AU107" s="74"/>
+      <c r="B107" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="77"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="77"/>
+      <c r="Q107" s="77"/>
+      <c r="R107" s="77"/>
+      <c r="S107" s="77"/>
+      <c r="T107" s="77"/>
+      <c r="U107" s="77"/>
+      <c r="V107" s="77"/>
+      <c r="W107" s="77"/>
+      <c r="X107" s="77"/>
+      <c r="Y107" s="77"/>
+      <c r="Z107" s="77"/>
+      <c r="AA107" s="77"/>
+      <c r="AB107" s="77"/>
+      <c r="AC107" s="77"/>
+      <c r="AD107" s="77"/>
+      <c r="AE107" s="77"/>
+      <c r="AF107" s="77"/>
+      <c r="AG107" s="77"/>
+      <c r="AH107" s="77"/>
+      <c r="AI107" s="77"/>
+      <c r="AJ107" s="77"/>
+      <c r="AK107" s="77"/>
+      <c r="AL107" s="77"/>
+      <c r="AM107" s="77"/>
+      <c r="AN107" s="77"/>
+      <c r="AO107" s="77"/>
+      <c r="AP107" s="77"/>
+      <c r="AQ107" s="77"/>
+      <c r="AR107" s="77"/>
+      <c r="AS107" s="77"/>
+      <c r="AT107" s="77"/>
+      <c r="AU107" s="77"/>
     </row>
     <row r="108" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="75"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="74"/>
-      <c r="K108" s="74"/>
-      <c r="L108" s="74"/>
-      <c r="M108" s="74"/>
-      <c r="N108" s="74"/>
-      <c r="O108" s="74"/>
-      <c r="P108" s="74"/>
-      <c r="Q108" s="74"/>
-      <c r="R108" s="74"/>
-      <c r="S108" s="74"/>
-      <c r="T108" s="74"/>
-      <c r="U108" s="74"/>
-      <c r="V108" s="74"/>
-      <c r="W108" s="74"/>
-      <c r="X108" s="74"/>
-      <c r="Y108" s="74"/>
-      <c r="Z108" s="74"/>
-      <c r="AA108" s="74"/>
-      <c r="AB108" s="74"/>
-      <c r="AC108" s="74"/>
-      <c r="AD108" s="74"/>
-      <c r="AE108" s="74"/>
-      <c r="AF108" s="74"/>
-      <c r="AG108" s="74"/>
-      <c r="AH108" s="74"/>
-      <c r="AI108" s="74"/>
-      <c r="AJ108" s="74"/>
-      <c r="AK108" s="74"/>
-      <c r="AL108" s="74"/>
-      <c r="AM108" s="74"/>
-      <c r="AN108" s="74"/>
-      <c r="AO108" s="74"/>
-      <c r="AP108" s="74"/>
-      <c r="AQ108" s="74"/>
-      <c r="AR108" s="74"/>
-      <c r="AS108" s="74"/>
-      <c r="AT108" s="74"/>
-      <c r="AU108" s="74"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="77"/>
+      <c r="L108" s="77"/>
+      <c r="M108" s="77"/>
+      <c r="N108" s="77"/>
+      <c r="O108" s="77"/>
+      <c r="P108" s="77"/>
+      <c r="Q108" s="77"/>
+      <c r="R108" s="77"/>
+      <c r="S108" s="77"/>
+      <c r="T108" s="77"/>
+      <c r="U108" s="77"/>
+      <c r="V108" s="77"/>
+      <c r="W108" s="77"/>
+      <c r="X108" s="77"/>
+      <c r="Y108" s="77"/>
+      <c r="Z108" s="77"/>
+      <c r="AA108" s="77"/>
+      <c r="AB108" s="77"/>
+      <c r="AC108" s="77"/>
+      <c r="AD108" s="77"/>
+      <c r="AE108" s="77"/>
+      <c r="AF108" s="77"/>
+      <c r="AG108" s="77"/>
+      <c r="AH108" s="77"/>
+      <c r="AI108" s="77"/>
+      <c r="AJ108" s="77"/>
+      <c r="AK108" s="77"/>
+      <c r="AL108" s="77"/>
+      <c r="AM108" s="77"/>
+      <c r="AN108" s="77"/>
+      <c r="AO108" s="77"/>
+      <c r="AP108" s="77"/>
+      <c r="AQ108" s="77"/>
+      <c r="AR108" s="77"/>
+      <c r="AS108" s="77"/>
+      <c r="AT108" s="77"/>
+      <c r="AU108" s="77"/>
     </row>
     <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="74"/>
-      <c r="L109" s="74"/>
-      <c r="M109" s="74"/>
-      <c r="N109" s="74"/>
-      <c r="O109" s="74"/>
-      <c r="P109" s="74"/>
-      <c r="Q109" s="74"/>
-      <c r="R109" s="74"/>
-      <c r="S109" s="74"/>
-      <c r="T109" s="74"/>
-      <c r="U109" s="74"/>
-      <c r="V109" s="74"/>
-      <c r="W109" s="74"/>
-      <c r="X109" s="74"/>
-      <c r="Y109" s="74"/>
-      <c r="Z109" s="74"/>
-      <c r="AA109" s="74"/>
-      <c r="AB109" s="74"/>
-      <c r="AC109" s="74"/>
-      <c r="AD109" s="74"/>
-      <c r="AE109" s="74"/>
-      <c r="AF109" s="74"/>
-      <c r="AG109" s="74"/>
-      <c r="AH109" s="74"/>
-      <c r="AI109" s="74"/>
-      <c r="AJ109" s="74"/>
-      <c r="AK109" s="74"/>
-      <c r="AL109" s="74"/>
-      <c r="AM109" s="74"/>
-      <c r="AN109" s="74"/>
-      <c r="AO109" s="74"/>
-      <c r="AP109" s="74"/>
-      <c r="AQ109" s="74"/>
-      <c r="AR109" s="74"/>
-      <c r="AS109" s="74"/>
-      <c r="AT109" s="74"/>
-      <c r="AU109" s="74"/>
+        <v>207</v>
+      </c>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="77"/>
+      <c r="N109" s="77"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="77"/>
+      <c r="Q109" s="77"/>
+      <c r="R109" s="77"/>
+      <c r="S109" s="77"/>
+      <c r="T109" s="77"/>
+      <c r="U109" s="77"/>
+      <c r="V109" s="77"/>
+      <c r="W109" s="77"/>
+      <c r="X109" s="77"/>
+      <c r="Y109" s="77"/>
+      <c r="Z109" s="77"/>
+      <c r="AA109" s="77"/>
+      <c r="AB109" s="77"/>
+      <c r="AC109" s="77"/>
+      <c r="AD109" s="77"/>
+      <c r="AE109" s="77"/>
+      <c r="AF109" s="77"/>
+      <c r="AG109" s="77"/>
+      <c r="AH109" s="77"/>
+      <c r="AI109" s="77"/>
+      <c r="AJ109" s="77"/>
+      <c r="AK109" s="77"/>
+      <c r="AL109" s="77"/>
+      <c r="AM109" s="77"/>
+      <c r="AN109" s="77"/>
+      <c r="AO109" s="77"/>
+      <c r="AP109" s="77"/>
+      <c r="AQ109" s="77"/>
+      <c r="AR109" s="77"/>
+      <c r="AS109" s="77"/>
+      <c r="AT109" s="77"/>
+      <c r="AU109" s="77"/>
     </row>
     <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="74"/>
-      <c r="H110" s="74"/>
-      <c r="I110" s="74"/>
-      <c r="J110" s="74"/>
-      <c r="K110" s="74"/>
-      <c r="L110" s="74"/>
-      <c r="M110" s="74"/>
-      <c r="N110" s="74"/>
-      <c r="O110" s="74"/>
-      <c r="P110" s="74"/>
-      <c r="Q110" s="74"/>
-      <c r="R110" s="74"/>
-      <c r="S110" s="74"/>
-      <c r="T110" s="74"/>
-      <c r="U110" s="74"/>
-      <c r="V110" s="74"/>
-      <c r="W110" s="74"/>
-      <c r="X110" s="74"/>
-      <c r="Y110" s="74"/>
-      <c r="Z110" s="74"/>
-      <c r="AA110" s="74"/>
-      <c r="AB110" s="74"/>
-      <c r="AC110" s="74"/>
-      <c r="AD110" s="74"/>
-      <c r="AE110" s="74"/>
-      <c r="AF110" s="74"/>
-      <c r="AG110" s="74"/>
-      <c r="AH110" s="74"/>
-      <c r="AI110" s="74"/>
-      <c r="AJ110" s="74"/>
-      <c r="AK110" s="74"/>
-      <c r="AL110" s="74"/>
-      <c r="AM110" s="74"/>
-      <c r="AN110" s="74"/>
-      <c r="AO110" s="74"/>
-      <c r="AP110" s="74"/>
-      <c r="AQ110" s="74"/>
-      <c r="AR110" s="74"/>
-      <c r="AS110" s="74"/>
-      <c r="AT110" s="74"/>
-      <c r="AU110" s="74"/>
+        <v>208</v>
+      </c>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
+      <c r="M110" s="77"/>
+      <c r="N110" s="77"/>
+      <c r="O110" s="77"/>
+      <c r="P110" s="77"/>
+      <c r="Q110" s="77"/>
+      <c r="R110" s="77"/>
+      <c r="S110" s="77"/>
+      <c r="T110" s="77"/>
+      <c r="U110" s="77"/>
+      <c r="V110" s="77"/>
+      <c r="W110" s="77"/>
+      <c r="X110" s="77"/>
+      <c r="Y110" s="77"/>
+      <c r="Z110" s="77"/>
+      <c r="AA110" s="77"/>
+      <c r="AB110" s="77"/>
+      <c r="AC110" s="77"/>
+      <c r="AD110" s="77"/>
+      <c r="AE110" s="77"/>
+      <c r="AF110" s="77"/>
+      <c r="AG110" s="77"/>
+      <c r="AH110" s="77"/>
+      <c r="AI110" s="77"/>
+      <c r="AJ110" s="77"/>
+      <c r="AK110" s="77"/>
+      <c r="AL110" s="77"/>
+      <c r="AM110" s="77"/>
+      <c r="AN110" s="77"/>
+      <c r="AO110" s="77"/>
+      <c r="AP110" s="77"/>
+      <c r="AQ110" s="77"/>
+      <c r="AR110" s="77"/>
+      <c r="AS110" s="77"/>
+      <c r="AT110" s="77"/>
+      <c r="AU110" s="77"/>
     </row>
     <row r="111" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B111" s="76" t="s">
-        <v>207</v>
-      </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="74"/>
-      <c r="K111" s="74"/>
-      <c r="L111" s="74"/>
-      <c r="M111" s="74"/>
-      <c r="N111" s="74"/>
-      <c r="O111" s="74"/>
-      <c r="P111" s="74"/>
-      <c r="Q111" s="74"/>
-      <c r="R111" s="74"/>
-      <c r="S111" s="74"/>
-      <c r="T111" s="74"/>
-      <c r="U111" s="74"/>
-      <c r="V111" s="74"/>
-      <c r="W111" s="74"/>
-      <c r="X111" s="74"/>
-      <c r="Y111" s="74"/>
-      <c r="Z111" s="74"/>
-      <c r="AA111" s="74"/>
-      <c r="AB111" s="74"/>
-      <c r="AC111" s="74"/>
-      <c r="AD111" s="74"/>
-      <c r="AE111" s="74"/>
-      <c r="AF111" s="74"/>
-      <c r="AG111" s="74"/>
-      <c r="AH111" s="74"/>
-      <c r="AI111" s="74"/>
-      <c r="AJ111" s="74"/>
-      <c r="AK111" s="74"/>
-      <c r="AL111" s="74"/>
-      <c r="AM111" s="74"/>
-      <c r="AN111" s="74"/>
-      <c r="AO111" s="74"/>
-      <c r="AP111" s="74"/>
-      <c r="AQ111" s="74"/>
-      <c r="AR111" s="74"/>
-      <c r="AS111" s="74"/>
-      <c r="AT111" s="74"/>
-      <c r="AU111" s="74"/>
+      <c r="B111" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="77"/>
+      <c r="M111" s="77"/>
+      <c r="N111" s="77"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="77"/>
+      <c r="Q111" s="77"/>
+      <c r="R111" s="77"/>
+      <c r="S111" s="77"/>
+      <c r="T111" s="77"/>
+      <c r="U111" s="77"/>
+      <c r="V111" s="77"/>
+      <c r="W111" s="77"/>
+      <c r="X111" s="77"/>
+      <c r="Y111" s="77"/>
+      <c r="Z111" s="77"/>
+      <c r="AA111" s="77"/>
+      <c r="AB111" s="77"/>
+      <c r="AC111" s="77"/>
+      <c r="AD111" s="77"/>
+      <c r="AE111" s="77"/>
+      <c r="AF111" s="77"/>
+      <c r="AG111" s="77"/>
+      <c r="AH111" s="77"/>
+      <c r="AI111" s="77"/>
+      <c r="AJ111" s="77"/>
+      <c r="AK111" s="77"/>
+      <c r="AL111" s="77"/>
+      <c r="AM111" s="77"/>
+      <c r="AN111" s="77"/>
+      <c r="AO111" s="77"/>
+      <c r="AP111" s="77"/>
+      <c r="AQ111" s="77"/>
+      <c r="AR111" s="77"/>
+      <c r="AS111" s="77"/>
+      <c r="AT111" s="77"/>
+      <c r="AU111" s="77"/>
     </row>
     <row r="112" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B112" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="74"/>
-      <c r="K112" s="74"/>
-      <c r="L112" s="74"/>
-      <c r="M112" s="74"/>
-      <c r="N112" s="74"/>
-      <c r="O112" s="74"/>
-      <c r="P112" s="74"/>
-      <c r="Q112" s="74"/>
-      <c r="R112" s="74"/>
-      <c r="S112" s="74"/>
-      <c r="T112" s="74"/>
-      <c r="U112" s="74"/>
-      <c r="V112" s="74"/>
-      <c r="W112" s="74"/>
-      <c r="X112" s="74"/>
-      <c r="Y112" s="74"/>
-      <c r="Z112" s="74"/>
-      <c r="AA112" s="74"/>
-      <c r="AB112" s="74"/>
-      <c r="AC112" s="74"/>
-      <c r="AD112" s="74"/>
-      <c r="AE112" s="74"/>
-      <c r="AF112" s="74"/>
-      <c r="AG112" s="74"/>
-      <c r="AH112" s="74"/>
-      <c r="AI112" s="74"/>
-      <c r="AJ112" s="74"/>
-      <c r="AK112" s="74"/>
-      <c r="AL112" s="74"/>
-      <c r="AM112" s="74"/>
-      <c r="AN112" s="74"/>
-      <c r="AO112" s="74"/>
-      <c r="AP112" s="74"/>
-      <c r="AQ112" s="74"/>
-      <c r="AR112" s="74"/>
-      <c r="AS112" s="74"/>
-      <c r="AT112" s="74"/>
-      <c r="AU112" s="74"/>
+      <c r="B112" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="77"/>
+      <c r="N112" s="77"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="77"/>
+      <c r="R112" s="77"/>
+      <c r="S112" s="77"/>
+      <c r="T112" s="77"/>
+      <c r="U112" s="77"/>
+      <c r="V112" s="77"/>
+      <c r="W112" s="77"/>
+      <c r="X112" s="77"/>
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
+      <c r="AA112" s="77"/>
+      <c r="AB112" s="77"/>
+      <c r="AC112" s="77"/>
+      <c r="AD112" s="77"/>
+      <c r="AE112" s="77"/>
+      <c r="AF112" s="77"/>
+      <c r="AG112" s="77"/>
+      <c r="AH112" s="77"/>
+      <c r="AI112" s="77"/>
+      <c r="AJ112" s="77"/>
+      <c r="AK112" s="77"/>
+      <c r="AL112" s="77"/>
+      <c r="AM112" s="77"/>
+      <c r="AN112" s="77"/>
+      <c r="AO112" s="77"/>
+      <c r="AP112" s="77"/>
+      <c r="AQ112" s="77"/>
+      <c r="AR112" s="77"/>
+      <c r="AS112" s="77"/>
+      <c r="AT112" s="77"/>
+      <c r="AU112" s="77"/>
     </row>
     <row r="113" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="74"/>
-      <c r="I113" s="74"/>
-      <c r="J113" s="74"/>
-      <c r="K113" s="74"/>
-      <c r="L113" s="74"/>
-      <c r="M113" s="74"/>
-      <c r="N113" s="74"/>
-      <c r="O113" s="74"/>
-      <c r="P113" s="74"/>
-      <c r="Q113" s="74"/>
-      <c r="R113" s="74"/>
-      <c r="S113" s="74"/>
-      <c r="T113" s="74"/>
-      <c r="U113" s="74"/>
-      <c r="V113" s="74"/>
-      <c r="W113" s="74"/>
-      <c r="X113" s="74"/>
-      <c r="Y113" s="74"/>
-      <c r="Z113" s="74"/>
-      <c r="AA113" s="74"/>
-      <c r="AB113" s="74"/>
-      <c r="AC113" s="74"/>
-      <c r="AD113" s="74"/>
-      <c r="AE113" s="74"/>
-      <c r="AF113" s="74"/>
-      <c r="AG113" s="74"/>
-      <c r="AH113" s="74"/>
-      <c r="AI113" s="74"/>
-      <c r="AJ113" s="74"/>
-      <c r="AK113" s="74"/>
-      <c r="AL113" s="74"/>
-      <c r="AM113" s="74"/>
-      <c r="AN113" s="74"/>
-      <c r="AO113" s="74"/>
-      <c r="AP113" s="74"/>
-      <c r="AQ113" s="74"/>
-      <c r="AR113" s="74"/>
-      <c r="AS113" s="74"/>
-      <c r="AT113" s="74"/>
-      <c r="AU113" s="74"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="77"/>
+      <c r="M113" s="77"/>
+      <c r="N113" s="77"/>
+      <c r="O113" s="77"/>
+      <c r="P113" s="77"/>
+      <c r="Q113" s="77"/>
+      <c r="R113" s="77"/>
+      <c r="S113" s="77"/>
+      <c r="T113" s="77"/>
+      <c r="U113" s="77"/>
+      <c r="V113" s="77"/>
+      <c r="W113" s="77"/>
+      <c r="X113" s="77"/>
+      <c r="Y113" s="77"/>
+      <c r="Z113" s="77"/>
+      <c r="AA113" s="77"/>
+      <c r="AB113" s="77"/>
+      <c r="AC113" s="77"/>
+      <c r="AD113" s="77"/>
+      <c r="AE113" s="77"/>
+      <c r="AF113" s="77"/>
+      <c r="AG113" s="77"/>
+      <c r="AH113" s="77"/>
+      <c r="AI113" s="77"/>
+      <c r="AJ113" s="77"/>
+      <c r="AK113" s="77"/>
+      <c r="AL113" s="77"/>
+      <c r="AM113" s="77"/>
+      <c r="AN113" s="77"/>
+      <c r="AO113" s="77"/>
+      <c r="AP113" s="77"/>
+      <c r="AQ113" s="77"/>
+      <c r="AR113" s="77"/>
+      <c r="AS113" s="77"/>
+      <c r="AT113" s="77"/>
+      <c r="AU113" s="77"/>
     </row>
     <row r="114" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="74"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="74"/>
-      <c r="I114" s="74"/>
-      <c r="J114" s="74"/>
-      <c r="K114" s="74"/>
-      <c r="L114" s="74"/>
-      <c r="M114" s="74"/>
-      <c r="N114" s="74"/>
-      <c r="O114" s="74"/>
-      <c r="P114" s="74"/>
-      <c r="Q114" s="74"/>
-      <c r="R114" s="74"/>
-      <c r="S114" s="74"/>
-      <c r="T114" s="74"/>
-      <c r="U114" s="74"/>
-      <c r="V114" s="74"/>
-      <c r="W114" s="74"/>
-      <c r="X114" s="74"/>
-      <c r="Y114" s="74"/>
-      <c r="Z114" s="74"/>
-      <c r="AA114" s="74"/>
-      <c r="AB114" s="74"/>
-      <c r="AC114" s="74"/>
-      <c r="AD114" s="74"/>
-      <c r="AE114" s="74"/>
-      <c r="AF114" s="74"/>
-      <c r="AG114" s="74"/>
-      <c r="AH114" s="74"/>
-      <c r="AI114" s="74"/>
-      <c r="AJ114" s="74"/>
-      <c r="AK114" s="74"/>
-      <c r="AL114" s="74"/>
-      <c r="AM114" s="74"/>
-      <c r="AN114" s="74"/>
-      <c r="AO114" s="74"/>
-      <c r="AP114" s="74"/>
-      <c r="AQ114" s="74"/>
-      <c r="AR114" s="74"/>
-      <c r="AS114" s="74"/>
-      <c r="AT114" s="74"/>
-      <c r="AU114" s="74"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="77"/>
+      <c r="R114" s="77"/>
+      <c r="S114" s="77"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="77"/>
+      <c r="V114" s="77"/>
+      <c r="W114" s="77"/>
+      <c r="X114" s="77"/>
+      <c r="Y114" s="77"/>
+      <c r="Z114" s="77"/>
+      <c r="AA114" s="77"/>
+      <c r="AB114" s="77"/>
+      <c r="AC114" s="77"/>
+      <c r="AD114" s="77"/>
+      <c r="AE114" s="77"/>
+      <c r="AF114" s="77"/>
+      <c r="AG114" s="77"/>
+      <c r="AH114" s="77"/>
+      <c r="AI114" s="77"/>
+      <c r="AJ114" s="77"/>
+      <c r="AK114" s="77"/>
+      <c r="AL114" s="77"/>
+      <c r="AM114" s="77"/>
+      <c r="AN114" s="77"/>
+      <c r="AO114" s="77"/>
+      <c r="AP114" s="77"/>
+      <c r="AQ114" s="77"/>
+      <c r="AR114" s="77"/>
+      <c r="AS114" s="77"/>
+      <c r="AT114" s="77"/>
+      <c r="AU114" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C75621BD-243E-4260-82B3-7AB98B516B84}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{AAFEC255-CA25-439F-A166-E9C5D08ED7F9}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{01E24A2C-1B90-40F7-BD02-8640242E5120}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{1DD7D241-8BDF-4782-9B99-391DBEE9C320}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{516500D6-89FE-4556-9E02-6E54A5C14ACB}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{0A9837A0-3D9D-49F5-8F2C-D78572A4DBB6}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{505D1524-C4B6-4818-96E2-814320DD1EDA}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{BA1DC105-8FCF-4C6C-8E6B-2DE6EB2D2E6C}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{261B0C2D-5F88-44F5-9A4F-6D663A40BAC4}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{27B9A305-58F4-44D7-8778-984AB6ACBBF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
